--- a/data/cutting_data.xlsx
+++ b/data/cutting_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/Documents/GitHub/jkruppa.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{89DF7365-A3E9-4146-BE46-387F67A4866F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0126018-962C-1D4C-99B0-D9B865F2ABD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5580" yWindow="2340" windowWidth="27640" windowHeight="16860" xr2:uid="{3BC47047-F65C-0A48-AEC1-47393041CD69}"/>
   </bookViews>
@@ -36,19 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="10">
-  <si>
-    <t>Trieblänge in cm</t>
-  </si>
-  <si>
-    <t>Blattanzahl</t>
-  </si>
-  <si>
-    <t>Blütenzahl</t>
-  </si>
-  <si>
-    <t>Fruchtanzahl</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="38">
   <si>
     <t>Kontrolle</t>
   </si>
@@ -66,16 +54,118 @@
   </si>
   <si>
     <t>trt</t>
+  </si>
+  <si>
+    <t>shoot 1</t>
+  </si>
+  <si>
+    <t>leaf 1</t>
+  </si>
+  <si>
+    <t>flower 1</t>
+  </si>
+  <si>
+    <t>fruit 1</t>
+  </si>
+  <si>
+    <t>shoot 2</t>
+  </si>
+  <si>
+    <t>leaf 2</t>
+  </si>
+  <si>
+    <t>flower 2</t>
+  </si>
+  <si>
+    <t>fruit 2</t>
+  </si>
+  <si>
+    <t>shoot 3</t>
+  </si>
+  <si>
+    <t>leaf 3</t>
+  </si>
+  <si>
+    <t>flower 3</t>
+  </si>
+  <si>
+    <t>fruit 3</t>
+  </si>
+  <si>
+    <t>shoot 4</t>
+  </si>
+  <si>
+    <t>leaf 4</t>
+  </si>
+  <si>
+    <t>flower 4</t>
+  </si>
+  <si>
+    <t>fruit 4</t>
+  </si>
+  <si>
+    <t>shoot 5</t>
+  </si>
+  <si>
+    <t>leaf 5</t>
+  </si>
+  <si>
+    <t>flower 5</t>
+  </si>
+  <si>
+    <t>fruit 5</t>
+  </si>
+  <si>
+    <t>shoot 6</t>
+  </si>
+  <si>
+    <t>leaf 6</t>
+  </si>
+  <si>
+    <t>flower 6</t>
+  </si>
+  <si>
+    <t>fruit 6</t>
+  </si>
+  <si>
+    <t>shoot 7</t>
+  </si>
+  <si>
+    <t>leaf 7</t>
+  </si>
+  <si>
+    <t>flower 7</t>
+  </si>
+  <si>
+    <t>fruit 7</t>
+  </si>
+  <si>
+    <t>shoot 8</t>
+  </si>
+  <si>
+    <t>leaf 8</t>
+  </si>
+  <si>
+    <t>flower 8</t>
+  </si>
+  <si>
+    <t>fruit 8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -116,11 +206,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -438,121 +527,118 @@
   <dimension ref="A1:AH25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="AJ9" sqref="AJ9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="16384" width="10.83203125" style="3"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AG1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>3</v>
+        <v>33</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -656,7 +742,7 @@
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -760,7 +846,7 @@
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
@@ -864,7 +950,7 @@
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B5" s="1">
         <v>2</v>
@@ -968,7 +1054,7 @@
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B6" s="1">
         <v>2</v>
@@ -1072,7 +1158,7 @@
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
@@ -1176,7 +1262,7 @@
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
@@ -1280,7 +1366,7 @@
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
@@ -1384,7 +1470,7 @@
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
@@ -1488,7 +1574,7 @@
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B11" s="1">
         <v>2</v>
@@ -1592,7 +1678,7 @@
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B12" s="1">
         <v>2</v>
@@ -1696,7 +1782,7 @@
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B13" s="1">
         <v>2</v>
@@ -1800,7 +1886,7 @@
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B14" s="1">
         <v>1</v>
@@ -1904,7 +1990,7 @@
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B15" s="1">
         <v>1</v>
@@ -2008,7 +2094,7 @@
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B16" s="1">
         <v>1</v>
@@ -2112,7 +2198,7 @@
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B17" s="1">
         <v>2</v>
@@ -2216,7 +2302,7 @@
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B18" s="1">
         <v>2</v>
@@ -2320,7 +2406,7 @@
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B19" s="1">
         <v>2</v>
@@ -2424,7 +2510,7 @@
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B20" s="1">
         <v>1</v>
@@ -2528,7 +2614,7 @@
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B21" s="1">
         <v>1</v>
@@ -2632,7 +2718,7 @@
     </row>
     <row r="22" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B22" s="1">
         <v>2</v>
@@ -2736,7 +2822,7 @@
     </row>
     <row r="23" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B23" s="1">
         <v>1</v>
@@ -2840,7 +2926,7 @@
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B24" s="1">
         <v>2</v>
@@ -2944,7 +3030,7 @@
     </row>
     <row r="25" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B25" s="1">
         <v>2</v>
@@ -3047,6 +3133,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/cutting_data.xlsx
+++ b/data/cutting_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/Documents/GitHub/jkruppa.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0126018-962C-1D4C-99B0-D9B865F2ABD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13019BC4-0F0B-5343-879B-15C4660D4573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5580" yWindow="2340" windowWidth="27640" windowHeight="16860" xr2:uid="{3BC47047-F65C-0A48-AEC1-47393041CD69}"/>
   </bookViews>
@@ -38,9 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="38">
   <si>
-    <t>Kontrolle</t>
-  </si>
-  <si>
     <t>strong</t>
   </si>
   <si>
@@ -150,6 +147,9 @@
   </si>
   <si>
     <t>fruit 8</t>
+  </si>
+  <si>
+    <t>control</t>
   </si>
 </sst>
 </file>
@@ -228,7 +228,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-Design 2013–2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -516,7 +516,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -527,118 +527,118 @@
   <dimension ref="A1:AH25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AJ9" sqref="AJ9"/>
+      <selection activeCell="A2" sqref="A2:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -742,7 +742,7 @@
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -846,7 +846,7 @@
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
@@ -950,7 +950,7 @@
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="B5" s="1">
         <v>2</v>
@@ -1054,7 +1054,7 @@
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="B6" s="1">
         <v>2</v>
@@ -1158,7 +1158,7 @@
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
@@ -1262,7 +1262,7 @@
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
@@ -1366,7 +1366,7 @@
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
@@ -1470,7 +1470,7 @@
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
@@ -1574,7 +1574,7 @@
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B11" s="1">
         <v>2</v>
@@ -1678,7 +1678,7 @@
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B12" s="1">
         <v>2</v>
@@ -1782,7 +1782,7 @@
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B13" s="1">
         <v>2</v>
@@ -1886,7 +1886,7 @@
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B14" s="1">
         <v>1</v>
@@ -1990,7 +1990,7 @@
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B15" s="1">
         <v>1</v>
@@ -2094,7 +2094,7 @@
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B16" s="1">
         <v>1</v>
@@ -2198,7 +2198,7 @@
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B17" s="1">
         <v>2</v>
@@ -2302,7 +2302,7 @@
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B18" s="1">
         <v>2</v>
@@ -2406,7 +2406,7 @@
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B19" s="1">
         <v>2</v>
@@ -2510,7 +2510,7 @@
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B20" s="1">
         <v>1</v>
@@ -2614,7 +2614,7 @@
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B21" s="1">
         <v>1</v>
@@ -2718,7 +2718,7 @@
     </row>
     <row r="22" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B22" s="1">
         <v>2</v>
@@ -2822,7 +2822,7 @@
     </row>
     <row r="23" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B23" s="1">
         <v>1</v>
@@ -2926,7 +2926,7 @@
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B24" s="1">
         <v>2</v>
@@ -3030,7 +3030,7 @@
     </row>
     <row r="25" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B25" s="1">
         <v>2</v>
